--- a/biology/Médecine/Achille_Chéreau/Achille_Chéreau.xlsx
+++ b/biology/Médecine/Achille_Chéreau/Achille_Chéreau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Achille_Ch%C3%A9reau</t>
+          <t>Achille_Chéreau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Achille Chéreau, né le 23 août 1817 à Bar-sur-Seine et mort le 17 janvier 1885 à Paris, est un médecin et biographe français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Achille_Ch%C3%A9reau</t>
+          <t>Achille_Chéreau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Achille Chéreau est né le 23 aout 1817 à Bar-sur-Seine. Originaire d’une famille qui comptait plusieurs médecins et où son père avait été chirurgien-major des armées, il se fit recevoir docteur en médecine à Paris, le 9 août 1841. Il s’occupa d’abord des maladies des ovaires et publia sur ce sujet et sur l’opération césarienne (1844-1852) quelques mémoires.
 Son gout pour les recherches historiques l’entrainait, cependant, plus souvent aux Archives, à la Bibliothèque nationale, ou à la Bibliothèque de la Faculté qu’à l’hôpital. En 1848, l’Académie de médecine lui décerna le prix Civrieux pour un mémoire sur le suicide. Il publia de très nombreux articles médico-historiques dans l’Union médicale, récola de riches matériaux pour une Histoire de l’ancienne faculté de médecine, pour l’Histoire des médecins des rois de France et pour une nouvelle édition des Lettres de Guy Patin, écrivain atrabilaire dont il avait retrouvé un assez grand nombre inédites, et pour qui il professait une sorte de culte.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Achille_Ch%C3%A9reau</t>
+          <t>Achille_Chéreau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi ses nombreux écrits, on cite ses Essais sur les origines du journalisme médical français, La Vérité sur la mort de J.-J. Rousseau, un autre sur Guillotin et la guillotine, un autre sur les Louise Bourgeois, dite Boursier, sage-femme de la reine Marie de Médicis, un très grand nombre de biographies de grands médecins dans le Dictionnaire encyclopédique des sciences médicales, le Parnasse médical français, in-12, 1874, des Esquisses biographiques sur Laennec, sur Bichat. Le travail qu’il publia en 1882 sur Michel Servet et l’histoire de la circulation du sang, lui attira quelques contradicteurs.
 </t>
